--- a/data/trans_dic/P79$alquiler_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.02448736827860747</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02417338897601159</v>
+        <v>0.0241733889760116</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0131765464282489</v>
+        <v>0.01415247794536767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01708369017359221</v>
+        <v>0.01627928811842312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01757816028867655</v>
+        <v>0.01751919807481414</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04392328224345609</v>
+        <v>0.04524689345513547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03558891692929444</v>
+        <v>0.03474436155143572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0342969370251358</v>
+        <v>0.03436612514591087</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02752921153704474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02415962824659019</v>
+        <v>0.02415962824659018</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01519894788100178</v>
+        <v>0.01547573158332989</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02050385485670123</v>
+        <v>0.02086539882592424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01952782406876745</v>
+        <v>0.01925123450810926</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02839756272857328</v>
+        <v>0.02914508951330286</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03696878658168173</v>
+        <v>0.03827229688707247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02948582089276752</v>
+        <v>0.02955684848687927</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003400844242182974</v>
+        <v>0.003495704781697646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004584108852918996</v>
+        <v>0.004611173280931539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00577406429811487</v>
+        <v>0.005873314377647058</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02566654998376078</v>
+        <v>0.02528818252237014</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02046024083737422</v>
+        <v>0.02094493352466323</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01886153168048615</v>
+        <v>0.01994552513002734</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01486406713188754</v>
+        <v>0.01452679360392424</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01858862835201419</v>
+        <v>0.0184663611792026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01771211018696318</v>
+        <v>0.01802473742283591</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02495101629575946</v>
+        <v>0.02555740298876177</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02898913094775856</v>
+        <v>0.0293761058299371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0253368380775454</v>
+        <v>0.02550099839567846</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7256</v>
+        <v>7794</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13327</v>
+        <v>12699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23393</v>
+        <v>23315</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24189</v>
+        <v>24918</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27763</v>
+        <v>27104</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45643</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32784</v>
+        <v>33381</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42950</v>
+        <v>43707</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83027</v>
+        <v>81851</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61254</v>
+        <v>62866</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77439</v>
+        <v>80169</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>125366</v>
+        <v>125668</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2396</v>
+        <v>2463</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3286</v>
+        <v>3305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8207</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18086</v>
+        <v>17819</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14665</v>
+        <v>15012</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26809</v>
+        <v>28350</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50722</v>
+        <v>49571</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66762</v>
+        <v>66323</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>124054</v>
+        <v>126244</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85142</v>
+        <v>87211</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>104116</v>
+        <v>105506</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>177457</v>
+        <v>178607</v>
       </c>
     </row>
     <row r="20">
